--- a/data.xlsx
+++ b/data.xlsx
@@ -13,7 +13,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">coordinates</t>
   </si>
   <si>
-    <t xml:space="preserve">București</t>
+    <t xml:space="preserve">Bucuresti</t>
   </si>
   <si>
     <t xml:space="preserve">44.4268, 26.1025</t>
@@ -43,19 +43,19 @@
     <t xml:space="preserve">46.7712, 23.6236</t>
   </si>
   <si>
-    <t xml:space="preserve">Timișoara</t>
+    <t xml:space="preserve">Timisoara</t>
   </si>
   <si>
     <t xml:space="preserve">45.7489, 21.2087</t>
   </si>
   <si>
-    <t xml:space="preserve">Iași</t>
+    <t xml:space="preserve">Iasi</t>
   </si>
   <si>
     <t xml:space="preserve">47.1585, 27.6014</t>
   </si>
   <si>
-    <t xml:space="preserve">Constanța</t>
+    <t xml:space="preserve">Constanta</t>
   </si>
   <si>
     <t xml:space="preserve">44.1765, 28.65</t>
@@ -67,19 +67,19 @@
     <t xml:space="preserve">44.3302, 23.7949</t>
   </si>
   <si>
-    <t xml:space="preserve">Brașov</t>
+    <t xml:space="preserve">Brasov</t>
   </si>
   <si>
     <t xml:space="preserve">45.6556, 25.6108</t>
   </si>
   <si>
-    <t xml:space="preserve">Galați</t>
+    <t xml:space="preserve">Galati</t>
   </si>
   <si>
     <t xml:space="preserve">45.4257, 28.0316</t>
   </si>
   <si>
-    <t xml:space="preserve">Ploiești</t>
+    <t xml:space="preserve">Ploiesti</t>
   </si>
   <si>
     <t xml:space="preserve">44.9469, 26.0364</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">47.0722, 21.9217</t>
   </si>
   <si>
-    <t xml:space="preserve">Brăila</t>
+    <t xml:space="preserve">Braila</t>
   </si>
   <si>
     <t xml:space="preserve">45.2692, 27.9572</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">46.1667, 21.3167</t>
   </si>
   <si>
-    <t xml:space="preserve">Pitești</t>
+    <t xml:space="preserve">Pitesti</t>
   </si>
   <si>
     <t xml:space="preserve">44.8606, 24.8678</t>
@@ -115,13 +115,13 @@
     <t xml:space="preserve">45.7971, 24.1526</t>
   </si>
   <si>
-    <t xml:space="preserve">Bacău</t>
+    <t xml:space="preserve">Bacau</t>
   </si>
   <si>
     <t xml:space="preserve">46.5759, 26.9135</t>
   </si>
   <si>
-    <t xml:space="preserve">Târgu Mureș</t>
+    <t xml:space="preserve">Targu Mures</t>
   </si>
   <si>
     <t xml:space="preserve">46.5428, 24.5635</t>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">47.6572, 23.568</t>
   </si>
   <si>
-    <t xml:space="preserve">Buzău</t>
+    <t xml:space="preserve">Buzau</t>
   </si>
   <si>
     <t xml:space="preserve">45.15, 26.8333</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">47.7916, 22.8858</t>
   </si>
   <si>
-    <t xml:space="preserve">Râmnicu Vâlcea</t>
+    <t xml:space="preserve">Ramnicu Valcea</t>
   </si>
   <si>
     <t xml:space="preserve">45.0997, 24.3653</t>
@@ -163,19 +163,19 @@
     <t xml:space="preserve">47.6433, 26.2473</t>
   </si>
   <si>
-    <t xml:space="preserve">Piatra Neamț</t>
+    <t xml:space="preserve">Piatra Neamt</t>
   </si>
   <si>
     <t xml:space="preserve">46.9296, 26.3692</t>
   </si>
   <si>
-    <t xml:space="preserve">Târgoviște</t>
+    <t xml:space="preserve">Targoviste</t>
   </si>
   <si>
     <t xml:space="preserve">44.9347, 25.4592</t>
   </si>
   <si>
-    <t xml:space="preserve">Focșani</t>
+    <t xml:space="preserve">Focsani</t>
   </si>
   <si>
     <t xml:space="preserve">45.6961, 27.1864</t>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">45.1667, 28.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Reșița</t>
+    <t xml:space="preserve">Resita</t>
   </si>
   <si>
     <t xml:space="preserve">45.2975, 21.885</t>
@@ -199,7 +199,7 @@
     <t xml:space="preserve">44.4344, 24.3714</t>
   </si>
   <si>
-    <t xml:space="preserve">Călărași</t>
+    <t xml:space="preserve">Calarasi</t>
   </si>
   <si>
     <t xml:space="preserve">44.2036, 27.3317</t>
@@ -223,25 +223,25 @@
     <t xml:space="preserve">46.0667, 23.5833</t>
   </si>
   <si>
-    <t xml:space="preserve">Zalău</t>
+    <t xml:space="preserve">Zalau</t>
   </si>
   <si>
     <t xml:space="preserve">47.1966, 23.0635</t>
   </si>
   <si>
-    <t xml:space="preserve">Sfântu Gheorghe</t>
+    <t xml:space="preserve">Sfantu Gheorghe</t>
   </si>
   <si>
     <t xml:space="preserve">45.8667, 25.7833</t>
   </si>
   <si>
-    <t xml:space="preserve">Bistrița</t>
+    <t xml:space="preserve">Bistrita</t>
   </si>
   <si>
     <t xml:space="preserve">47.1367, 24.4962</t>
   </si>
   <si>
-    <t xml:space="preserve">Huși</t>
+    <t xml:space="preserve">Husi</t>
   </si>
   <si>
     <t xml:space="preserve">46.6789, 28.0593</t>
@@ -253,7 +253,7 @@
     <t xml:space="preserve">46.6333, 27.7333</t>
   </si>
   <si>
-    <t xml:space="preserve">Râmnicu Sărat</t>
+    <t xml:space="preserve">Ramnicu Sarat</t>
   </si>
   <si>
     <t xml:space="preserve">45.3833, 26.8167</t>
@@ -283,7 +283,7 @@
     <t xml:space="preserve">44.1167, 24.35</t>
   </si>
   <si>
-    <t xml:space="preserve">Sighetu Marmației</t>
+    <t xml:space="preserve">Sighetu Marmatiei</t>
   </si>
   <si>
     <t xml:space="preserve">47.9333, 23.8833</t>
@@ -299,8 +299,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -328,8 +329,9 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -382,13 +384,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -410,520 +432,521 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="9.15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="6" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
